--- a/DataCaddie/data/salaries/draftkings_salaries.xlsx
+++ b/DataCaddie/data/salaries/draftkings_salaries.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethjernigan/Desktop/DataCaddie/DataCaddieShiny/DataCaddie/data/salaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA64E5-32A8-AC42-AFDA-1D71FF2EFBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{338B4DC2-E4E6-F049-BC00-694C9190176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32120" yWindow="2280" windowWidth="27640" windowHeight="16940" xr2:uid="{3AB2497F-DA6A-7045-B927-C0A823BE7987}"/>
+    <workbookView xWindow="4880" yWindow="8240" windowWidth="28040" windowHeight="17440" xr2:uid="{D9DB6837-BCE4-6746-9C18-60146C0B33A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DKSalaries (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="324">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="845" uniqueCount="292">
   <si>
     <t>Position</t>
   </si>
@@ -68,953 +57,857 @@
     <t>G</t>
   </si>
   <si>
-    <t>Matt Fitzpatrick (39530731)</t>
-  </si>
-  <si>
-    <t>Matt Fitzpatrick</t>
-  </si>
-  <si>
-    <t>Wyndham Championship</t>
+    <t>Xander Schauffele (41749951)</t>
+  </si>
+  <si>
+    <t>Xander Schauffele</t>
+  </si>
+  <si>
+    <t>Farmers Insurance Open</t>
   </si>
   <si>
     <t>Golf</t>
   </si>
   <si>
-    <t>Keegan Bradley (39530732)</t>
+    <t>Ludvig Aberg (41749952)</t>
+  </si>
+  <si>
+    <t>Ludvig Aberg</t>
+  </si>
+  <si>
+    <t>Patrick Cantlay (41749953)</t>
+  </si>
+  <si>
+    <t>Patrick Cantlay</t>
+  </si>
+  <si>
+    <t>Cameron Young (41749954)</t>
+  </si>
+  <si>
+    <t>Cameron Young</t>
+  </si>
+  <si>
+    <t>Jason Day (41749955)</t>
+  </si>
+  <si>
+    <t>Jason Day</t>
+  </si>
+  <si>
+    <t>Si Woo Kim (41749956)</t>
+  </si>
+  <si>
+    <t>Si Woo Kim</t>
+  </si>
+  <si>
+    <t>J.J. Spaun (41749957)</t>
+  </si>
+  <si>
+    <t>J.J. Spaun</t>
+  </si>
+  <si>
+    <t>Hideki Matsuyama (41749958)</t>
+  </si>
+  <si>
+    <t>Hideki Matsuyama</t>
+  </si>
+  <si>
+    <t>Keegan Bradley (41749959)</t>
   </si>
   <si>
     <t>Keegan Bradley</t>
   </si>
   <si>
-    <t>Ben Griffin (39530733)</t>
-  </si>
-  <si>
-    <t>Ben Griffin</t>
-  </si>
-  <si>
-    <t>Hideki Matsuyama (39530734)</t>
-  </si>
-  <si>
-    <t>Hideki Matsuyama</t>
-  </si>
-  <si>
-    <t>Robert Macintyre (39530735)</t>
-  </si>
-  <si>
-    <t>Robert Macintyre</t>
-  </si>
-  <si>
-    <t>Jordan Spieth (39530736)</t>
-  </si>
-  <si>
-    <t>Jordan Spieth</t>
-  </si>
-  <si>
-    <t>Aaron Rai (39530737)</t>
+    <t>Harris English (41749960)</t>
+  </si>
+  <si>
+    <t>Harris English</t>
+  </si>
+  <si>
+    <t>Chris Gotterup (41749961)</t>
+  </si>
+  <si>
+    <t>Chris Gotterup</t>
+  </si>
+  <si>
+    <t>Maverick McNealy (41749962)</t>
+  </si>
+  <si>
+    <t>Maverick McNealy</t>
+  </si>
+  <si>
+    <t>Will Zalatoris (41749963)</t>
+  </si>
+  <si>
+    <t>Will Zalatoris</t>
+  </si>
+  <si>
+    <t>Taylor Pendrith (41749964)</t>
+  </si>
+  <si>
+    <t>Taylor Pendrith</t>
+  </si>
+  <si>
+    <t>Ryan Gerard (41749965)</t>
+  </si>
+  <si>
+    <t>Ryan Gerard</t>
+  </si>
+  <si>
+    <t>Wyndham Clark (41749966)</t>
+  </si>
+  <si>
+    <t>Wyndham Clark</t>
+  </si>
+  <si>
+    <t>Alex Noren (41749967)</t>
+  </si>
+  <si>
+    <t>Alex Noren</t>
+  </si>
+  <si>
+    <t>Max Homa (41749968)</t>
+  </si>
+  <si>
+    <t>Max Homa</t>
+  </si>
+  <si>
+    <t>Jake Knapp (41749969)</t>
+  </si>
+  <si>
+    <t>Jake Knapp</t>
+  </si>
+  <si>
+    <t>Adam Scott (41749970)</t>
+  </si>
+  <si>
+    <t>Adam Scott</t>
+  </si>
+  <si>
+    <t>Brooks Koepka (41749971)</t>
+  </si>
+  <si>
+    <t>Brooks Koepka</t>
+  </si>
+  <si>
+    <t>Rasmus Hojgaard (41749972)</t>
+  </si>
+  <si>
+    <t>Rasmus Hojgaard</t>
+  </si>
+  <si>
+    <t>Sam Stevens (41749973)</t>
+  </si>
+  <si>
+    <t>Sam Stevens</t>
+  </si>
+  <si>
+    <t>Matthew McCarty (41749974)</t>
+  </si>
+  <si>
+    <t>Matthew McCarty</t>
+  </si>
+  <si>
+    <t>Aaron Rai (41749975)</t>
   </si>
   <si>
     <t>Aaron Rai</t>
   </si>
   <si>
-    <t>Harry Hall (39530738)</t>
-  </si>
-  <si>
-    <t>Harry Hall</t>
-  </si>
-  <si>
-    <t>Jake Knapp (39530739)</t>
-  </si>
-  <si>
-    <t>Jake Knapp</t>
-  </si>
-  <si>
-    <t>Akshay Bhatia (39530740)</t>
+    <t>Marco Penge (41749976)</t>
+  </si>
+  <si>
+    <t>Marco Penge</t>
+  </si>
+  <si>
+    <t>Michael Thorbjornsen (41749977)</t>
+  </si>
+  <si>
+    <t>Michael Thorbjornsen</t>
+  </si>
+  <si>
+    <t>Garrick Higgo (41749978)</t>
+  </si>
+  <si>
+    <t>Garrick Higgo</t>
+  </si>
+  <si>
+    <t>Justin Rose (41749979)</t>
+  </si>
+  <si>
+    <t>Justin Rose</t>
+  </si>
+  <si>
+    <t>Denny McCarthy (41749980)</t>
+  </si>
+  <si>
+    <t>Denny McCarthy</t>
+  </si>
+  <si>
+    <t>Nicolai Hojgaard (41749981)</t>
+  </si>
+  <si>
+    <t>Nicolai Hojgaard</t>
+  </si>
+  <si>
+    <t>Max Greyserman (41749982)</t>
+  </si>
+  <si>
+    <t>Max Greyserman</t>
+  </si>
+  <si>
+    <t>Pierceson Coody (41749983)</t>
+  </si>
+  <si>
+    <t>Pierceson Coody</t>
+  </si>
+  <si>
+    <t>Rasmus Neergaard-Petersen (41749984)</t>
+  </si>
+  <si>
+    <t>Rasmus Neergaard-Petersen</t>
+  </si>
+  <si>
+    <t>Sahith Theegala (41749985)</t>
+  </si>
+  <si>
+    <t>Sahith Theegala</t>
+  </si>
+  <si>
+    <t>Akshay Bhatia (41749986)</t>
   </si>
   <si>
     <t>Akshay Bhatia</t>
   </si>
   <si>
-    <t>Lucas Glover (39530741)</t>
-  </si>
-  <si>
-    <t>Lucas Glover</t>
-  </si>
-  <si>
-    <t>Kurt Kitayama (39530742)</t>
-  </si>
-  <si>
-    <t>Kurt Kitayama</t>
-  </si>
-  <si>
-    <t>Si Woo Kim (39530743)</t>
-  </si>
-  <si>
-    <t>Si Woo Kim</t>
-  </si>
-  <si>
-    <t>Adam Scott (39530744)</t>
-  </si>
-  <si>
-    <t>Adam Scott</t>
-  </si>
-  <si>
-    <t>Rickie Fowler (39530745)</t>
-  </si>
-  <si>
-    <t>Rickie Fowler</t>
-  </si>
-  <si>
-    <t>Ryan Gerard (39530746)</t>
-  </si>
-  <si>
-    <t>Ryan Gerard</t>
-  </si>
-  <si>
-    <t>Luke Clanton (39530747)</t>
+    <t>Thorbjorn Olesen (41749987)</t>
+  </si>
+  <si>
+    <t>Thorbjorn Olesen</t>
+  </si>
+  <si>
+    <t>Christiaan Bezuidenhout (41749988)</t>
+  </si>
+  <si>
+    <t>Christiaan Bezuidenhout</t>
+  </si>
+  <si>
+    <t>Kevin Yu (41749989)</t>
+  </si>
+  <si>
+    <t>Kevin Yu</t>
+  </si>
+  <si>
+    <t>Rico Hoey (41749990)</t>
+  </si>
+  <si>
+    <t>Rico Hoey</t>
+  </si>
+  <si>
+    <t>Hao-Tong Li (41749991)</t>
+  </si>
+  <si>
+    <t>Hao-Tong Li</t>
+  </si>
+  <si>
+    <t>Keith Mitchell (41749992)</t>
+  </si>
+  <si>
+    <t>Keith Mitchell</t>
+  </si>
+  <si>
+    <t>Kristoffer Reitan (41749993)</t>
+  </si>
+  <si>
+    <t>Kristoffer Reitan</t>
+  </si>
+  <si>
+    <t>Patrick Rodgers (41749994)</t>
+  </si>
+  <si>
+    <t>Patrick Rodgers</t>
+  </si>
+  <si>
+    <t>Davis Thompson (41749995)</t>
+  </si>
+  <si>
+    <t>Davis Thompson</t>
+  </si>
+  <si>
+    <t>Andrew Novak (41749996)</t>
+  </si>
+  <si>
+    <t>Andrew Novak</t>
+  </si>
+  <si>
+    <t>Jordan L. Smith (41749998)</t>
+  </si>
+  <si>
+    <t>Jordan L. Smith</t>
+  </si>
+  <si>
+    <t>Doug Ghim (41749999)</t>
+  </si>
+  <si>
+    <t>Doug Ghim</t>
+  </si>
+  <si>
+    <t>Vince Whaley (41750000)</t>
+  </si>
+  <si>
+    <t>Vince Whaley</t>
+  </si>
+  <si>
+    <t>Eric Cole (41750001)</t>
+  </si>
+  <si>
+    <t>Eric Cole</t>
+  </si>
+  <si>
+    <t>John Parry (41750002)</t>
+  </si>
+  <si>
+    <t>John Parry</t>
+  </si>
+  <si>
+    <t>Alex Smalley (41750003)</t>
+  </si>
+  <si>
+    <t>Alex Smalley</t>
+  </si>
+  <si>
+    <t>Billy Horschel (41750004)</t>
+  </si>
+  <si>
+    <t>Billy Horschel</t>
+  </si>
+  <si>
+    <t>Max McGreevy (41750005)</t>
+  </si>
+  <si>
+    <t>Max McGreevy</t>
+  </si>
+  <si>
+    <t>Matt Wallace (41750006)</t>
+  </si>
+  <si>
+    <t>Matt Wallace</t>
+  </si>
+  <si>
+    <t>Mac Meissner (41750007)</t>
+  </si>
+  <si>
+    <t>Mac Meissner</t>
+  </si>
+  <si>
+    <t>Lee Hodges (41750008)</t>
+  </si>
+  <si>
+    <t>Lee Hodges</t>
+  </si>
+  <si>
+    <t>Jesper Svensson (41750009)</t>
+  </si>
+  <si>
+    <t>Jesper Svensson</t>
+  </si>
+  <si>
+    <t>John Keefer (41750010)</t>
+  </si>
+  <si>
+    <t>John Keefer</t>
+  </si>
+  <si>
+    <t>Tony Finau (41750011)</t>
+  </si>
+  <si>
+    <t>Tony Finau</t>
+  </si>
+  <si>
+    <t>Seamus Power (41750012)</t>
+  </si>
+  <si>
+    <t>Seamus Power</t>
+  </si>
+  <si>
+    <t>Michael Brennan (41750013)</t>
+  </si>
+  <si>
+    <t>Michael Brennan</t>
+  </si>
+  <si>
+    <t>Daniel Brown (41750014)</t>
+  </si>
+  <si>
+    <t>Daniel Brown</t>
+  </si>
+  <si>
+    <t>Seonghyeon Kim (41750015)</t>
+  </si>
+  <si>
+    <t>Seonghyeon Kim</t>
+  </si>
+  <si>
+    <t>Emiliano Grillo (41750016)</t>
+  </si>
+  <si>
+    <t>Emiliano Grillo</t>
+  </si>
+  <si>
+    <t>Adrien Dumont De Chassart (41750017)</t>
+  </si>
+  <si>
+    <t>Adrien Dumont De Chassart</t>
+  </si>
+  <si>
+    <t>Ricky Castillo (41750018)</t>
+  </si>
+  <si>
+    <t>Ricky Castillo</t>
+  </si>
+  <si>
+    <t>Beau Hossler (41750019)</t>
+  </si>
+  <si>
+    <t>Beau Hossler</t>
+  </si>
+  <si>
+    <t>Stephan Jaeger (41750020)</t>
+  </si>
+  <si>
+    <t>Stephan Jaeger</t>
+  </si>
+  <si>
+    <t>Taylor Moore (41750021)</t>
+  </si>
+  <si>
+    <t>Taylor Moore</t>
+  </si>
+  <si>
+    <t>Kris Ventura (41750022)</t>
+  </si>
+  <si>
+    <t>Kris Ventura</t>
+  </si>
+  <si>
+    <t>Matt Kuchar (41750023)</t>
+  </si>
+  <si>
+    <t>Matt Kuchar</t>
+  </si>
+  <si>
+    <t>Matti Schmid (41750024)</t>
+  </si>
+  <si>
+    <t>Matti Schmid</t>
+  </si>
+  <si>
+    <t>Austin Smotherman (41750025)</t>
+  </si>
+  <si>
+    <t>Austin Smotherman</t>
+  </si>
+  <si>
+    <t>Gary Woodland (41750026)</t>
+  </si>
+  <si>
+    <t>Gary Woodland</t>
+  </si>
+  <si>
+    <t>Tom Hoge (41750027)</t>
+  </si>
+  <si>
+    <t>Tom Hoge</t>
+  </si>
+  <si>
+    <t>William Mouw (41750028)</t>
+  </si>
+  <si>
+    <t>William Mouw</t>
+  </si>
+  <si>
+    <t>Sami Valimaki (41750029)</t>
+  </si>
+  <si>
+    <t>Sami Valimaki</t>
+  </si>
+  <si>
+    <t>Kevin Roy (41750030)</t>
+  </si>
+  <si>
+    <t>Kevin Roy</t>
+  </si>
+  <si>
+    <t>Mackenzie Hughes (41750031)</t>
+  </si>
+  <si>
+    <t>Mackenzie Hughes</t>
+  </si>
+  <si>
+    <t>Jhonattan Vegas (41750032)</t>
+  </si>
+  <si>
+    <t>Jhonattan Vegas</t>
+  </si>
+  <si>
+    <t>Tom Kim (41750033)</t>
+  </si>
+  <si>
+    <t>Tom Kim</t>
+  </si>
+  <si>
+    <t>Austin Eckroat (41750034)</t>
+  </si>
+  <si>
+    <t>Austin Eckroat</t>
+  </si>
+  <si>
+    <t>Patrick Fishburn (41750035)</t>
+  </si>
+  <si>
+    <t>Patrick Fishburn</t>
+  </si>
+  <si>
+    <t>Keita Nakajima (41750036)</t>
+  </si>
+  <si>
+    <t>Keita Nakajima</t>
+  </si>
+  <si>
+    <t>Andrew Putnam (41750037)</t>
+  </si>
+  <si>
+    <t>Andrew Putnam</t>
+  </si>
+  <si>
+    <t>Luke Clanton (41750038)</t>
   </si>
   <si>
     <t>Luke Clanton</t>
   </si>
   <si>
-    <t>Max Greyserman (39530748)</t>
-  </si>
-  <si>
-    <t>Max Greyserman</t>
-  </si>
-  <si>
-    <t>Denny McCarthy (39530749)</t>
-  </si>
-  <si>
-    <t>Denny McCarthy</t>
-  </si>
-  <si>
-    <t>Sam Stevens (39530750)</t>
-  </si>
-  <si>
-    <t>Sam Stevens</t>
-  </si>
-  <si>
-    <t>Sungjae Im (39530751)</t>
-  </si>
-  <si>
-    <t>Sungjae Im</t>
-  </si>
-  <si>
-    <t>Cameron Young (39530752)</t>
-  </si>
-  <si>
-    <t>Cameron Young</t>
-  </si>
-  <si>
-    <t>Nicolai Hojgaard (39530753)</t>
-  </si>
-  <si>
-    <t>Nicolai Hojgaard</t>
-  </si>
-  <si>
-    <t>Matt Wallace (39530754)</t>
-  </si>
-  <si>
-    <t>Matt Wallace</t>
-  </si>
-  <si>
-    <t>J.T. Poston (39530755)</t>
-  </si>
-  <si>
-    <t>J.T. Poston</t>
-  </si>
-  <si>
-    <t>Michael Thorbjornsen (39530756)</t>
-  </si>
-  <si>
-    <t>Michael Thorbjornsen</t>
-  </si>
-  <si>
-    <t>Pierceson Coody (39530757)</t>
-  </si>
-  <si>
-    <t>Pierceson Coody</t>
-  </si>
-  <si>
-    <t>Thorbjorn Olesen (39530758)</t>
-  </si>
-  <si>
-    <t>Thorbjorn Olesen</t>
-  </si>
-  <si>
-    <t>Davis Thompson (39530759)</t>
-  </si>
-  <si>
-    <t>Davis Thompson</t>
-  </si>
-  <si>
-    <t>Kevin Yu (39530760)</t>
-  </si>
-  <si>
-    <t>Kevin Yu</t>
-  </si>
-  <si>
-    <t>Emiliano Grillo (39530761)</t>
-  </si>
-  <si>
-    <t>Emiliano Grillo</t>
-  </si>
-  <si>
-    <t>Bud Cauley (39530762)</t>
-  </si>
-  <si>
-    <t>Bud Cauley</t>
-  </si>
-  <si>
-    <t>Keith Mitchell (39530763)</t>
-  </si>
-  <si>
-    <t>Keith Mitchell</t>
-  </si>
-  <si>
-    <t>Tom Kim (39530764)</t>
-  </si>
-  <si>
-    <t>Tom Kim</t>
-  </si>
-  <si>
-    <t>Michael Kim (39530765)</t>
-  </si>
-  <si>
-    <t>Michael Kim</t>
-  </si>
-  <si>
-    <t>Jackson Koivun (39530766)</t>
-  </si>
-  <si>
-    <t>Jackson Koivun</t>
-  </si>
-  <si>
-    <t>Tony Finau (39530767)</t>
-  </si>
-  <si>
-    <t>Tony Finau</t>
-  </si>
-  <si>
-    <t>Max Homa (39530768)</t>
-  </si>
-  <si>
-    <t>Max Homa</t>
-  </si>
-  <si>
-    <t>Andrew Novak (39530769)</t>
-  </si>
-  <si>
-    <t>Andrew Novak</t>
-  </si>
-  <si>
-    <t>Jesper Svensson (39530770)</t>
-  </si>
-  <si>
-    <t>Jesper Svensson</t>
-  </si>
-  <si>
-    <t>Rico Hoey (39530771)</t>
-  </si>
-  <si>
-    <t>Rico Hoey</t>
-  </si>
-  <si>
-    <t>Rasmus Hojgaard (39530772)</t>
-  </si>
-  <si>
-    <t>Rasmus Hojgaard</t>
-  </si>
-  <si>
-    <t>Ryan Fox (39530773)</t>
-  </si>
-  <si>
-    <t>Ryan Fox</t>
-  </si>
-  <si>
-    <t>Alex Smalley (39530774)</t>
-  </si>
-  <si>
-    <t>Alex Smalley</t>
-  </si>
-  <si>
-    <t>Christiaan Bezuidenhout (39530775)</t>
-  </si>
-  <si>
-    <t>Christiaan Bezuidenhout</t>
-  </si>
-  <si>
-    <t>Chris Kirk (39530776)</t>
-  </si>
-  <si>
-    <t>Chris Kirk</t>
-  </si>
-  <si>
-    <t>Alex Noren (39530777)</t>
-  </si>
-  <si>
-    <t>Alex Noren</t>
-  </si>
-  <si>
-    <t>Thomas Detry (39530778)</t>
-  </si>
-  <si>
-    <t>Thomas Detry</t>
-  </si>
-  <si>
-    <t>Nicolas Echavarria (39530779)</t>
-  </si>
-  <si>
-    <t>Nicolas Echavarria</t>
-  </si>
-  <si>
-    <t>Taylor Moore (39530780)</t>
-  </si>
-  <si>
-    <t>Taylor Moore</t>
-  </si>
-  <si>
-    <t>Byeong Hun An (39530781)</t>
-  </si>
-  <si>
-    <t>Byeong Hun An</t>
-  </si>
-  <si>
-    <t>Takumi Kanaya (39530782)</t>
+    <t>Matthieu Pavon (41750039)</t>
+  </si>
+  <si>
+    <t>Matthieu Pavon</t>
+  </si>
+  <si>
+    <t>Adrien Saddier (41750040)</t>
+  </si>
+  <si>
+    <t>Adrien Saddier</t>
+  </si>
+  <si>
+    <t>David Ford (41750041)</t>
+  </si>
+  <si>
+    <t>David Ford</t>
+  </si>
+  <si>
+    <t>Chad Ramey (41750042)</t>
+  </si>
+  <si>
+    <t>Chad Ramey</t>
+  </si>
+  <si>
+    <t>Takumi Kanaya (41750043)</t>
   </si>
   <si>
     <t>Takumi Kanaya</t>
   </si>
   <si>
-    <t>Austin Eckroat (39530783)</t>
-  </si>
-  <si>
-    <t>Austin Eckroat</t>
-  </si>
-  <si>
-    <t>Vince Whaley (39530784)</t>
-  </si>
-  <si>
-    <t>Vince Whaley</t>
-  </si>
-  <si>
-    <t>William Mouw (39530785)</t>
-  </si>
-  <si>
-    <t>William Mouw</t>
-  </si>
-  <si>
-    <t>Andrew Putnam (39530786)</t>
-  </si>
-  <si>
-    <t>Andrew Putnam</t>
-  </si>
-  <si>
-    <t>Matt Kuchar (39530787)</t>
-  </si>
-  <si>
-    <t>Matt Kuchar</t>
-  </si>
-  <si>
-    <t>Gary Woodland (39530788)</t>
-  </si>
-  <si>
-    <t>Gary Woodland</t>
-  </si>
-  <si>
-    <t>Webb Simpson (39530789)</t>
-  </si>
-  <si>
-    <t>Webb Simpson</t>
-  </si>
-  <si>
-    <t>Beau Hossler (39530790)</t>
-  </si>
-  <si>
-    <t>Beau Hossler</t>
-  </si>
-  <si>
-    <t>Kevin Roy (39530791)</t>
-  </si>
-  <si>
-    <t>Kevin Roy</t>
-  </si>
-  <si>
-    <t>Ryo Hisatsune (39530792)</t>
+    <t>Chandler Phillips (41750044)</t>
+  </si>
+  <si>
+    <t>Chandler Phillips</t>
+  </si>
+  <si>
+    <t>Steven Fisk (41750045)</t>
+  </si>
+  <si>
+    <t>Steven Fisk</t>
+  </si>
+  <si>
+    <t>Mark Hubbard (41750046)</t>
+  </si>
+  <si>
+    <t>Mark Hubbard</t>
+  </si>
+  <si>
+    <t>Neal Shipley (41750047)</t>
+  </si>
+  <si>
+    <t>Neal Shipley</t>
+  </si>
+  <si>
+    <t>Zecheng Dou (41750048)</t>
+  </si>
+  <si>
+    <t>Zecheng Dou</t>
+  </si>
+  <si>
+    <t>Aldrich Potgieter (41750049)</t>
+  </si>
+  <si>
+    <t>Aldrich Potgieter</t>
+  </si>
+  <si>
+    <t>Davis Riley (41750050)</t>
+  </si>
+  <si>
+    <t>Davis Riley</t>
+  </si>
+  <si>
+    <t>Dylan Wu (41750051)</t>
+  </si>
+  <si>
+    <t>Dylan Wu</t>
+  </si>
+  <si>
+    <t>Brandt Snedeker (41750052)</t>
+  </si>
+  <si>
+    <t>Brandt Snedeker</t>
+  </si>
+  <si>
+    <t>Chandler Blanchet (41750053)</t>
+  </si>
+  <si>
+    <t>Chandler Blanchet</t>
+  </si>
+  <si>
+    <t>Ryo Hisatsune (41750054)</t>
   </si>
   <si>
     <t>Ryo Hisatsune</t>
   </si>
   <si>
-    <t>Jacob Bridgeman (39530793)</t>
-  </si>
-  <si>
-    <t>Jacob Bridgeman</t>
-  </si>
-  <si>
-    <t>Sahith Theegala (39530794)</t>
-  </si>
-  <si>
-    <t>Sahith Theegala</t>
-  </si>
-  <si>
-    <t>Victor Perez (39530795)</t>
-  </si>
-  <si>
-    <t>Victor Perez</t>
-  </si>
-  <si>
-    <t>Eric Cole (39530796)</t>
-  </si>
-  <si>
-    <t>Eric Cole</t>
-  </si>
-  <si>
-    <t>Adam Svensson (39530797)</t>
+    <t>Luke List (41750055)</t>
+  </si>
+  <si>
+    <t>Luke List</t>
+  </si>
+  <si>
+    <t>Erik Van Rooyen (41750056)</t>
+  </si>
+  <si>
+    <t>Erik Van Rooyen</t>
+  </si>
+  <si>
+    <t>Isaiah Salinda (41750057)</t>
+  </si>
+  <si>
+    <t>Isaiah Salinda</t>
+  </si>
+  <si>
+    <t>Brice Garnett (41750058)</t>
+  </si>
+  <si>
+    <t>Brice Garnett</t>
+  </si>
+  <si>
+    <t>Sudarshan Yellamaraju (41750059)</t>
+  </si>
+  <si>
+    <t>Sudarshan Yellamaraju</t>
+  </si>
+  <si>
+    <t>Karl Vilips (41750060)</t>
+  </si>
+  <si>
+    <t>Karl Vilips</t>
+  </si>
+  <si>
+    <t>Kensei Hirata (41750062)</t>
+  </si>
+  <si>
+    <t>Kensei Hirata</t>
+  </si>
+  <si>
+    <t>Hank Lebioda (41750063)</t>
+  </si>
+  <si>
+    <t>Hank Lebioda</t>
+  </si>
+  <si>
+    <t>Davis Chatfield (41750064)</t>
+  </si>
+  <si>
+    <t>Davis Chatfield</t>
+  </si>
+  <si>
+    <t>Emilio Gonzalez (41750065)</t>
+  </si>
+  <si>
+    <t>Emilio Gonzalez</t>
+  </si>
+  <si>
+    <t>David Lipsky (41750066)</t>
+  </si>
+  <si>
+    <t>David Lipsky</t>
+  </si>
+  <si>
+    <t>Justin Lower (41750067)</t>
+  </si>
+  <si>
+    <t>Justin Lower</t>
+  </si>
+  <si>
+    <t>Adam Svensson (41750068)</t>
   </si>
   <si>
     <t>Adam Svensson</t>
   </si>
   <si>
-    <t>Stephan Jaeger (39530798)</t>
-  </si>
-  <si>
-    <t>Stephan Jaeger</t>
-  </si>
-  <si>
-    <t>Patrick Fishburn (39530800)</t>
-  </si>
-  <si>
-    <t>Patrick Fishburn</t>
-  </si>
-  <si>
-    <t>Lee Hodges (39530801)</t>
-  </si>
-  <si>
-    <t>Lee Hodges</t>
-  </si>
-  <si>
-    <t>Mark Hubbard (39530802)</t>
-  </si>
-  <si>
-    <t>Mark Hubbard</t>
-  </si>
-  <si>
-    <t>Doug Ghim (39530803)</t>
-  </si>
-  <si>
-    <t>Doug Ghim</t>
-  </si>
-  <si>
-    <t>Matti Schmid (39530804)</t>
-  </si>
-  <si>
-    <t>Matti Schmid</t>
-  </si>
-  <si>
-    <t>Niklas Norgaard Moller (39530805)</t>
-  </si>
-  <si>
-    <t>Niklas Norgaard Moller</t>
-  </si>
-  <si>
-    <t>Matthew McCarty (39530806)</t>
-  </si>
-  <si>
-    <t>Matthew McCarty</t>
-  </si>
-  <si>
-    <t>David Lipsky (39530807)</t>
-  </si>
-  <si>
-    <t>David Lipsky</t>
-  </si>
-  <si>
-    <t>Max McGreevy (39530808)</t>
-  </si>
-  <si>
-    <t>Max McGreevy</t>
-  </si>
-  <si>
-    <t>Sam Ryder (39530809)</t>
+    <t>Joe Highsmith (41750069)</t>
+  </si>
+  <si>
+    <t>Joe Highsmith</t>
+  </si>
+  <si>
+    <t>Zachary Bauchou (41750070)</t>
+  </si>
+  <si>
+    <t>Zachary Bauchou</t>
+  </si>
+  <si>
+    <t>Christo Lamprecht (41750071)</t>
+  </si>
+  <si>
+    <t>Christo Lamprecht</t>
+  </si>
+  <si>
+    <t>John VanDerLaan (41750072)</t>
+  </si>
+  <si>
+    <t>John VanDerLaan</t>
+  </si>
+  <si>
+    <t>Seung-taek Lee (41750073)</t>
+  </si>
+  <si>
+    <t>Seung-taek Lee</t>
+  </si>
+  <si>
+    <t>Alejandro Tosti (41750074)</t>
+  </si>
+  <si>
+    <t>Alejandro Tosti</t>
+  </si>
+  <si>
+    <t>Cameron Davis (41750075)</t>
+  </si>
+  <si>
+    <t>Cameron Davis</t>
+  </si>
+  <si>
+    <t>Adam Schenk (41750076)</t>
+  </si>
+  <si>
+    <t>Adam Schenk</t>
+  </si>
+  <si>
+    <t>Charley Hoffman (41750077)</t>
+  </si>
+  <si>
+    <t>Charley Hoffman</t>
+  </si>
+  <si>
+    <t>Pontus Nyholm (41750078)</t>
+  </si>
+  <si>
+    <t>Pontus Nyholm</t>
+  </si>
+  <si>
+    <t>Justin Hastings (41750079)</t>
+  </si>
+  <si>
+    <t>Justin Hastings</t>
+  </si>
+  <si>
+    <t>Kevin Streelman (41750080)</t>
+  </si>
+  <si>
+    <t>Kevin Streelman</t>
+  </si>
+  <si>
+    <t>Jeffrey Kang (41750081)</t>
+  </si>
+  <si>
+    <t>Jeffrey Kang</t>
+  </si>
+  <si>
+    <t>Danny Walker (41750082)</t>
+  </si>
+  <si>
+    <t>Danny Walker</t>
+  </si>
+  <si>
+    <t>Aaron Wise (41750083)</t>
+  </si>
+  <si>
+    <t>Aaron Wise</t>
+  </si>
+  <si>
+    <t>Camilo Villegas (41750084)</t>
+  </si>
+  <si>
+    <t>Camilo Villegas</t>
+  </si>
+  <si>
+    <t>Gordon Sargent (41750085)</t>
+  </si>
+  <si>
+    <t>Gordon Sargent</t>
+  </si>
+  <si>
+    <t>Peter Malnati (41750086)</t>
+  </si>
+  <si>
+    <t>Peter Malnati</t>
+  </si>
+  <si>
+    <t>Rafael Campos (41750087)</t>
+  </si>
+  <si>
+    <t>Rafael Campos</t>
+  </si>
+  <si>
+    <t>Marcus Byrd (41750088)</t>
+  </si>
+  <si>
+    <t>Marcus Byrd</t>
+  </si>
+  <si>
+    <t>Marcelo Rozo (41750089)</t>
+  </si>
+  <si>
+    <t>Marcelo Rozo</t>
+  </si>
+  <si>
+    <t>A.J. Ewart (41750090)</t>
+  </si>
+  <si>
+    <t>A.J. Ewart</t>
+  </si>
+  <si>
+    <t>Mark Geddes (41750091)</t>
+  </si>
+  <si>
+    <t>Mark Geddes</t>
   </si>
   <si>
     <t>Sam Ryder</t>
   </si>
   <si>
-    <t>Ricky Castillo (39530810)</t>
-  </si>
-  <si>
-    <t>Ricky Castillo</t>
-  </si>
-  <si>
-    <t>Seamus Power (39530811)</t>
-  </si>
-  <si>
-    <t>Seamus Power</t>
-  </si>
-  <si>
-    <t>Erik Van Rooyen (39530812)</t>
-  </si>
-  <si>
-    <t>Erik Van Rooyen</t>
-  </si>
-  <si>
-    <t>Ben Kohles (39530813)</t>
-  </si>
-  <si>
-    <t>Ben Kohles</t>
-  </si>
-  <si>
-    <t>Chan Kim (39530814)</t>
-  </si>
-  <si>
-    <t>Chan Kim</t>
-  </si>
-  <si>
-    <t>Nick Hardy (39530815)</t>
-  </si>
-  <si>
-    <t>Nick Hardy</t>
-  </si>
-  <si>
-    <t>Nate Lashley (39530816)</t>
-  </si>
-  <si>
-    <t>Nate Lashley</t>
-  </si>
-  <si>
-    <t>Thriston Lawrence (39530817)</t>
-  </si>
-  <si>
-    <t>Thriston Lawrence</t>
-  </si>
-  <si>
-    <t>Antoine Rozner (39530818)</t>
-  </si>
-  <si>
-    <t>Antoine Rozner</t>
-  </si>
-  <si>
-    <t>Carson Young (39530819)</t>
-  </si>
-  <si>
-    <t>Carson Young</t>
-  </si>
-  <si>
-    <t>Cameron Davis (39530820)</t>
-  </si>
-  <si>
-    <t>Cameron Davis</t>
-  </si>
-  <si>
-    <t>Brian Campbell (39530821)</t>
-  </si>
-  <si>
-    <t>Brian Campbell</t>
-  </si>
-  <si>
-    <t>Garrick Higgo (39530822)</t>
-  </si>
-  <si>
-    <t>Garrick Higgo</t>
-  </si>
-  <si>
-    <t>Patrick Rodgers (39530823)</t>
-  </si>
-  <si>
-    <t>Patrick Rodgers</t>
-  </si>
-  <si>
-    <t>Kris Ventura (39530824)</t>
-  </si>
-  <si>
-    <t>Kris Ventura</t>
-  </si>
-  <si>
-    <t>Steven Fisk (39530825)</t>
-  </si>
-  <si>
-    <t>Steven Fisk</t>
-  </si>
-  <si>
-    <t>Sami Valimaki (39530826)</t>
-  </si>
-  <si>
-    <t>Sami Valimaki</t>
-  </si>
-  <si>
-    <t>Isaiah Salinda (39530827)</t>
-  </si>
-  <si>
-    <t>Isaiah Salinda</t>
-  </si>
-  <si>
-    <t>Chandler Phillips (39530828)</t>
-  </si>
-  <si>
-    <t>Chandler Phillips</t>
-  </si>
-  <si>
-    <t>Matteo Manassero (39530829)</t>
-  </si>
-  <si>
-    <t>Matteo Manassero</t>
-  </si>
-  <si>
-    <t>Davis Riley (39530830)</t>
-  </si>
-  <si>
-    <t>Davis Riley</t>
-  </si>
-  <si>
-    <t>Jackson Suber (39530831)</t>
-  </si>
-  <si>
-    <t>Jackson Suber</t>
-  </si>
-  <si>
-    <t>Quade Cummins (39530832)</t>
-  </si>
-  <si>
-    <t>Quade Cummins</t>
-  </si>
-  <si>
-    <t>Henrik Norlander (39530833)</t>
-  </si>
-  <si>
-    <t>Henrik Norlander</t>
-  </si>
-  <si>
-    <t>Chad Ramey (39530834)</t>
-  </si>
-  <si>
-    <t>Chad Ramey</t>
-  </si>
-  <si>
-    <t>Thomas Rosenmueller (39530835)</t>
-  </si>
-  <si>
-    <t>Thomas Rosenmueller</t>
-  </si>
-  <si>
-    <t>Mac Meissner (39530836)</t>
-  </si>
-  <si>
-    <t>Mac Meissner</t>
-  </si>
-  <si>
-    <t>Will Gordon (39530837)</t>
-  </si>
-  <si>
-    <t>Will Gordon</t>
-  </si>
-  <si>
-    <t>David Skinns (39530838)</t>
-  </si>
-  <si>
-    <t>David Skinns</t>
-  </si>
-  <si>
-    <t>Zach Johnson (39530839)</t>
-  </si>
-  <si>
-    <t>Zach Johnson</t>
-  </si>
-  <si>
-    <t>Joel Dahmen (39530840)</t>
-  </si>
-  <si>
     <t>Joel Dahmen</t>
-  </si>
-  <si>
-    <t>Adam Hadwin (39530841)</t>
-  </si>
-  <si>
-    <t>Adam Hadwin</t>
-  </si>
-  <si>
-    <t>Brice Garnett (39530842)</t>
-  </si>
-  <si>
-    <t>Brice Garnett</t>
-  </si>
-  <si>
-    <t>Greyson Sigg (39530843)</t>
-  </si>
-  <si>
-    <t>Greyson Sigg</t>
-  </si>
-  <si>
-    <t>David Ford (39530844)</t>
-  </si>
-  <si>
-    <t>David Ford</t>
-  </si>
-  <si>
-    <t>Luke List (39530845)</t>
-  </si>
-  <si>
-    <t>Luke List</t>
-  </si>
-  <si>
-    <t>Brandt Snedeker (39530846)</t>
-  </si>
-  <si>
-    <t>Brandt Snedeker</t>
-  </si>
-  <si>
-    <t>Joe Highsmith (39530847)</t>
-  </si>
-  <si>
-    <t>Joe Highsmith</t>
-  </si>
-  <si>
-    <t>Ben Silverman (39530848)</t>
-  </si>
-  <si>
-    <t>Ben Silverman</t>
-  </si>
-  <si>
-    <t>Noah Goodwin (39530849)</t>
-  </si>
-  <si>
-    <t>Noah Goodwin</t>
-  </si>
-  <si>
-    <t>Harry Higgs (39530850)</t>
-  </si>
-  <si>
-    <t>Harry Higgs</t>
-  </si>
-  <si>
-    <t>Karl Vilips (39530851)</t>
-  </si>
-  <si>
-    <t>Karl Vilips</t>
-  </si>
-  <si>
-    <t>Lanto Griffin (39530852)</t>
-  </si>
-  <si>
-    <t>Lanto Griffin</t>
-  </si>
-  <si>
-    <t>Matthieu Pavon (39530853)</t>
-  </si>
-  <si>
-    <t>Matthieu Pavon</t>
-  </si>
-  <si>
-    <t>Chesson Hadley (39530854)</t>
-  </si>
-  <si>
-    <t>Chesson Hadley</t>
-  </si>
-  <si>
-    <t>Justin Lower (39530855)</t>
-  </si>
-  <si>
-    <t>Justin Lower</t>
-  </si>
-  <si>
-    <t>Paul Peterson (39530856)</t>
-  </si>
-  <si>
-    <t>Paul Peterson</t>
-  </si>
-  <si>
-    <t>Zac Blair (39530857)</t>
-  </si>
-  <si>
-    <t>Zac Blair</t>
-  </si>
-  <si>
-    <t>Adam Schenk (39530858)</t>
-  </si>
-  <si>
-    <t>Adam Schenk</t>
-  </si>
-  <si>
-    <t>Kevin Kisner (39530859)</t>
-  </si>
-  <si>
-    <t>Kevin Kisner</t>
-  </si>
-  <si>
-    <t>Gordon Sargent (39530860)</t>
-  </si>
-  <si>
-    <t>Gordon Sargent</t>
-  </si>
-  <si>
-    <t>Trey Mullinax (39530861)</t>
-  </si>
-  <si>
-    <t>Trey Mullinax</t>
-  </si>
-  <si>
-    <t>Danny Walker (39530862)</t>
-  </si>
-  <si>
-    <t>Danny Walker</t>
-  </si>
-  <si>
-    <t>Nick Dunlap (39530863)</t>
-  </si>
-  <si>
-    <t>Nick Dunlap</t>
-  </si>
-  <si>
-    <t>Trevor Cone (39530864)</t>
-  </si>
-  <si>
-    <t>Trevor Cone</t>
-  </si>
-  <si>
-    <t>Patton Kizzire (39530865)</t>
-  </si>
-  <si>
-    <t>Patton Kizzire</t>
-  </si>
-  <si>
-    <t>Peter Malnati (39530866)</t>
-  </si>
-  <si>
-    <t>Peter Malnati</t>
-  </si>
-  <si>
-    <t>Cristobal Del Solar (39530867)</t>
-  </si>
-  <si>
-    <t>Cristobal Del Solar</t>
-  </si>
-  <si>
-    <t>Camilo Villegas (39530868)</t>
-  </si>
-  <si>
-    <t>Camilo Villegas</t>
-  </si>
-  <si>
-    <t>John Pak (39530869)</t>
-  </si>
-  <si>
-    <t>John Pak</t>
-  </si>
-  <si>
-    <t>Kevin Velo (39530870)</t>
-  </si>
-  <si>
-    <t>Kevin Velo</t>
-  </si>
-  <si>
-    <t>Matthew Riedel (39530871)</t>
-  </si>
-  <si>
-    <t>Matthew Riedel</t>
-  </si>
-  <si>
-    <t>Will Chandler (39530872)</t>
-  </si>
-  <si>
-    <t>Will Chandler</t>
-  </si>
-  <si>
-    <t>Scotty Kennon (39537366)</t>
-  </si>
-  <si>
-    <t>Scotty Kennon</t>
-  </si>
-  <si>
-    <t>Tain Lee (39537367)</t>
-  </si>
-  <si>
-    <t>Tain Lee</t>
-  </si>
-  <si>
-    <t>Aaron Wise (39530873)</t>
-  </si>
-  <si>
-    <t>Aaron Wise</t>
-  </si>
-  <si>
-    <t>Philip Knowles (39530874)</t>
-  </si>
-  <si>
-    <t>Philip Knowles</t>
-  </si>
-  <si>
-    <t>Taylor Dickson (39530875)</t>
-  </si>
-  <si>
-    <t>Taylor Dickson</t>
-  </si>
-  <si>
-    <t>Rafael Campos (39530876)</t>
-  </si>
-  <si>
-    <t>Rafael Campos</t>
-  </si>
-  <si>
-    <t>Kaito Onishi (39530877)</t>
-  </si>
-  <si>
-    <t>Kaito Onishi</t>
-  </si>
-  <si>
-    <t>Frankie Capan (39530878)</t>
-  </si>
-  <si>
-    <t>Frankie Capan</t>
-  </si>
-  <si>
-    <t>Jim Herman (39530879)</t>
-  </si>
-  <si>
-    <t>Jim Herman</t>
-  </si>
-  <si>
-    <t>Aaron Baddeley (39530880)</t>
-  </si>
-  <si>
-    <t>Aaron Baddeley</t>
-  </si>
-  <si>
-    <t>Ryan Palmer (39530881)</t>
-  </si>
-  <si>
-    <t>Ryan Palmer</t>
-  </si>
-  <si>
-    <t>Preston Cole (39530882)</t>
-  </si>
-  <si>
-    <t>Preston Cole</t>
-  </si>
-  <si>
-    <t>Austin Duncan (39537364)</t>
-  </si>
-  <si>
-    <t>Austin Duncan</t>
-  </si>
-  <si>
-    <t>Stephen Franken (39537365)</t>
-  </si>
-  <si>
-    <t>Stephen Franken</t>
-  </si>
-  <si>
-    <t>Braden Thornberry (39537368)</t>
-  </si>
-  <si>
-    <t>Braden Thornberry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1022,32 +915,521 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF7F7F7F"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF7F7F7F"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF3F3F3F"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF3F3F3F"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="double">
+        <color rgb="FF3F3F3F"/>
+      </start>
+      <end style="double">
+        <color rgb="FF3F3F3F"/>
+      </end>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FFB2B2B2"/>
+      </start>
+      <end style="thin">
+        <color rgb="FFB2B2B2"/>
+      </end>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1063,7 +1445,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1216,25 +1598,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1242,25 +1624,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1273,21 +1655,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1301,7 +1683,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1313,32 +1695,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1378,11 +1760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C8642D-8DC2-394C-9605-C2631271923E}">
-  <dimension ref="A1:I157"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9A4CC2-F693-8447-9975-EB973DCB5B02}">
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,13 +1809,13 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>39530731</v>
+        <v>41749951</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1442,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="I2">
-        <v>67.41</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1456,13 +1838,13 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>39530732</v>
+        <v>41749952</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1471,7 +1853,7 @@
         <v>13</v>
       </c>
       <c r="I3">
-        <v>76.239999999999995</v>
+        <v>67.05</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1485,7 +1867,7 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>39530733</v>
+        <v>41749953</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1500,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>68.150000000000006</v>
+        <v>76.19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1514,13 +1896,13 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>39530734</v>
+        <v>41749954</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1529,7 +1911,7 @@
         <v>13</v>
       </c>
       <c r="I5">
-        <v>70.17</v>
+        <v>69.62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1543,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>39530735</v>
+        <v>41749955</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1558,7 +1940,7 @@
         <v>13</v>
       </c>
       <c r="I6">
-        <v>69.52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1572,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>39530736</v>
+        <v>41749956</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1587,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="I7">
-        <v>66.239999999999995</v>
+        <v>68.69</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1601,13 +1983,13 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>39530737</v>
+        <v>41749957</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1616,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="I8">
-        <v>63.33</v>
+        <v>75.11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1630,13 +2012,13 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>39530738</v>
+        <v>41749958</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1645,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="I9">
-        <v>76.14</v>
+        <v>74.58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1659,13 +2041,13 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>39530739</v>
+        <v>41749959</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1674,7 +2056,7 @@
         <v>13</v>
       </c>
       <c r="I10">
-        <v>73.08</v>
+        <v>71.94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1688,13 +2070,13 @@
         <v>31</v>
       </c>
       <c r="D11">
-        <v>39530740</v>
+        <v>41749960</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1703,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="I11">
-        <v>68.3</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1717,13 +2099,13 @@
         <v>33</v>
       </c>
       <c r="D12">
-        <v>39530741</v>
+        <v>41749961</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1732,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="I12">
-        <v>62.5</v>
+        <v>67.739999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1746,13 +2128,13 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>39530742</v>
+        <v>41749962</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1761,7 +2143,7 @@
         <v>13</v>
       </c>
       <c r="I13">
-        <v>66.78</v>
+        <v>68.760000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1775,13 +2157,13 @@
         <v>37</v>
       </c>
       <c r="D14">
-        <v>39530743</v>
+        <v>41749963</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1790,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="I14">
-        <v>63.04</v>
+        <v>67.62</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1804,13 +2186,13 @@
         <v>39</v>
       </c>
       <c r="D15">
-        <v>39530744</v>
+        <v>41749964</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1819,7 +2201,7 @@
         <v>13</v>
       </c>
       <c r="I15">
-        <v>61.12</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1833,13 +2215,13 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>39530745</v>
+        <v>41749965</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -1848,7 +2230,7 @@
         <v>13</v>
       </c>
       <c r="I16">
-        <v>65.31</v>
+        <v>72.27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1862,13 +2244,13 @@
         <v>43</v>
       </c>
       <c r="D17">
-        <v>39530746</v>
+        <v>41749966</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -1877,7 +2259,7 @@
         <v>13</v>
       </c>
       <c r="I17">
-        <v>69.7</v>
+        <v>69.680000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1891,13 +2273,13 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>39530747</v>
+        <v>41749967</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -1906,7 +2288,7 @@
         <v>13</v>
       </c>
       <c r="I18">
-        <v>57.09</v>
+        <v>65.58</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1920,13 +2302,13 @@
         <v>47</v>
       </c>
       <c r="D19">
-        <v>39530748</v>
+        <v>41749968</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -1935,7 +2317,7 @@
         <v>13</v>
       </c>
       <c r="I19">
-        <v>63.82</v>
+        <v>58.86</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1949,13 +2331,13 @@
         <v>49</v>
       </c>
       <c r="D20">
-        <v>39530749</v>
+        <v>41749969</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -1964,7 +2346,7 @@
         <v>13</v>
       </c>
       <c r="I20">
-        <v>65.680000000000007</v>
+        <v>71.150000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1978,13 +2360,13 @@
         <v>51</v>
       </c>
       <c r="D21">
-        <v>39530750</v>
+        <v>41749970</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -1993,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="I21">
-        <v>67.52</v>
+        <v>67.23</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2007,7 +2389,7 @@
         <v>53</v>
       </c>
       <c r="D22">
-        <v>39530751</v>
+        <v>41749971</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -2022,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="I22">
-        <v>61.63</v>
+        <v>48.26</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2036,7 +2418,7 @@
         <v>55</v>
       </c>
       <c r="D23">
-        <v>39530752</v>
+        <v>41749972</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -2051,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="I23">
-        <v>59.68</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2065,13 +2447,13 @@
         <v>57</v>
       </c>
       <c r="D24">
-        <v>39530753</v>
+        <v>41749973</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -2080,7 +2462,7 @@
         <v>13</v>
       </c>
       <c r="I24">
-        <v>63.13</v>
+        <v>66.14</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2094,7 +2476,7 @@
         <v>59</v>
       </c>
       <c r="D25">
-        <v>39530754</v>
+        <v>41749974</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2109,7 +2491,7 @@
         <v>13</v>
       </c>
       <c r="I25">
-        <v>56.58</v>
+        <v>67.209999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2123,13 +2505,13 @@
         <v>61</v>
       </c>
       <c r="D26">
-        <v>39530755</v>
+        <v>41749975</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -2138,7 +2520,7 @@
         <v>13</v>
       </c>
       <c r="I26">
-        <v>60.65</v>
+        <v>66.34</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2152,7 +2534,7 @@
         <v>63</v>
       </c>
       <c r="D27">
-        <v>39530756</v>
+        <v>41749976</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2167,7 +2549,7 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>59.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2181,13 +2563,13 @@
         <v>65</v>
       </c>
       <c r="D28">
-        <v>39530757</v>
+        <v>41749977</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -2196,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>86.6</v>
+        <v>69.150000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2210,7 +2592,7 @@
         <v>67</v>
       </c>
       <c r="D29">
-        <v>39530758</v>
+        <v>41749978</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -2225,7 +2607,7 @@
         <v>13</v>
       </c>
       <c r="I29">
-        <v>61.28</v>
+        <v>77.42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2239,13 +2621,13 @@
         <v>69</v>
       </c>
       <c r="D30">
-        <v>39530759</v>
+        <v>41749979</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -2254,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="I30">
-        <v>58.89</v>
+        <v>64.55</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2268,13 +2650,13 @@
         <v>71</v>
       </c>
       <c r="D31">
-        <v>39530760</v>
+        <v>41749980</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2283,7 +2665,7 @@
         <v>13</v>
       </c>
       <c r="I31">
-        <v>66.05</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2297,7 +2679,7 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>39530761</v>
+        <v>41749981</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -2312,7 +2694,7 @@
         <v>13</v>
       </c>
       <c r="I32">
-        <v>62.14</v>
+        <v>65.31</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,13 +2708,13 @@
         <v>75</v>
       </c>
       <c r="D33">
-        <v>39530762</v>
+        <v>41749982</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -2341,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="I33">
-        <v>66.66</v>
+        <v>64.88</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2355,13 +2737,13 @@
         <v>77</v>
       </c>
       <c r="D34">
-        <v>39530763</v>
+        <v>41749983</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -2370,7 +2752,7 @@
         <v>13</v>
       </c>
       <c r="I34">
-        <v>72.14</v>
+        <v>81.23</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2384,13 +2766,13 @@
         <v>79</v>
       </c>
       <c r="D35">
-        <v>39530764</v>
+        <v>41749984</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2399,7 +2781,7 @@
         <v>13</v>
       </c>
       <c r="I35">
-        <v>54.46</v>
+        <v>66.28</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2413,7 +2795,7 @@
         <v>81</v>
       </c>
       <c r="D36">
-        <v>39530765</v>
+        <v>41749985</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -2428,7 +2810,7 @@
         <v>13</v>
       </c>
       <c r="I36">
-        <v>61.33</v>
+        <v>60.33</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2442,7 +2824,7 @@
         <v>83</v>
       </c>
       <c r="D37">
-        <v>39530766</v>
+        <v>41749986</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -2457,7 +2839,7 @@
         <v>13</v>
       </c>
       <c r="I37">
-        <v>59.1</v>
+        <v>68.150000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2471,13 +2853,13 @@
         <v>85</v>
       </c>
       <c r="D38">
-        <v>39530767</v>
+        <v>41749987</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -2486,7 +2868,7 @@
         <v>13</v>
       </c>
       <c r="I38">
-        <v>59.92</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2500,13 +2882,13 @@
         <v>87</v>
       </c>
       <c r="D39">
-        <v>39530768</v>
+        <v>41749988</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2515,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="I39">
-        <v>53.92</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2529,7 +2911,7 @@
         <v>89</v>
       </c>
       <c r="D40">
-        <v>39530769</v>
+        <v>41749989</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -2544,7 +2926,7 @@
         <v>13</v>
       </c>
       <c r="I40">
-        <v>59.5</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2558,7 +2940,7 @@
         <v>91</v>
       </c>
       <c r="D41">
-        <v>39530770</v>
+        <v>41749990</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -2573,7 +2955,7 @@
         <v>13</v>
       </c>
       <c r="I41">
-        <v>68.5</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2587,7 +2969,7 @@
         <v>93</v>
       </c>
       <c r="D42">
-        <v>39530771</v>
+        <v>41749991</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -2602,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="I42">
-        <v>62.57</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2616,7 +2998,7 @@
         <v>95</v>
       </c>
       <c r="D43">
-        <v>39530772</v>
+        <v>41749992</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -2631,7 +3013,7 @@
         <v>13</v>
       </c>
       <c r="I43">
-        <v>59.62</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2645,7 +3027,7 @@
         <v>97</v>
       </c>
       <c r="D44">
-        <v>39530773</v>
+        <v>41749993</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -2660,7 +3042,7 @@
         <v>13</v>
       </c>
       <c r="I44">
-        <v>67.900000000000006</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2674,7 +3056,7 @@
         <v>99</v>
       </c>
       <c r="D45">
-        <v>39530774</v>
+        <v>41749994</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -2689,7 +3071,7 @@
         <v>13</v>
       </c>
       <c r="I45">
-        <v>64.12</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2703,7 +3085,7 @@
         <v>101</v>
       </c>
       <c r="D46">
-        <v>39530775</v>
+        <v>41749995</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -2718,7 +3100,7 @@
         <v>13</v>
       </c>
       <c r="I46">
-        <v>60.35</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2732,7 +3114,7 @@
         <v>103</v>
       </c>
       <c r="D47">
-        <v>39530776</v>
+        <v>41749996</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -2747,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="I47">
-        <v>57.9</v>
+        <v>62.34</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2761,7 +3143,7 @@
         <v>105</v>
       </c>
       <c r="D48">
-        <v>39530777</v>
+        <v>41749998</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -2776,7 +3158,7 @@
         <v>13</v>
       </c>
       <c r="I48">
-        <v>57.12</v>
+        <v>62.92</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2790,7 +3172,7 @@
         <v>107</v>
       </c>
       <c r="D49">
-        <v>39530778</v>
+        <v>41749999</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -2805,7 +3187,7 @@
         <v>13</v>
       </c>
       <c r="I49">
-        <v>61.6</v>
+        <v>63.55</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2819,7 +3201,7 @@
         <v>109</v>
       </c>
       <c r="D50">
-        <v>39530779</v>
+        <v>41750000</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -2834,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="I50">
-        <v>61.32</v>
+        <v>69.61</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2848,13 +3230,13 @@
         <v>111</v>
       </c>
       <c r="D51">
-        <v>39530780</v>
+        <v>41750001</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -2863,7 +3245,7 @@
         <v>13</v>
       </c>
       <c r="I51">
-        <v>61.94</v>
+        <v>63.12</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2877,7 +3259,7 @@
         <v>113</v>
       </c>
       <c r="D52">
-        <v>39530781</v>
+        <v>41750002</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -2892,7 +3274,7 @@
         <v>13</v>
       </c>
       <c r="I52">
-        <v>56.68</v>
+        <v>72.62</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2906,7 +3288,7 @@
         <v>115</v>
       </c>
       <c r="D53">
-        <v>39530782</v>
+        <v>41750003</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -2921,7 +3303,7 @@
         <v>13</v>
       </c>
       <c r="I53">
-        <v>46.52</v>
+        <v>63.48</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2935,7 +3317,7 @@
         <v>117</v>
       </c>
       <c r="D54">
-        <v>39530783</v>
+        <v>41750004</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -2950,7 +3332,7 @@
         <v>13</v>
       </c>
       <c r="I54">
-        <v>55.18</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2964,7 +3346,7 @@
         <v>119</v>
       </c>
       <c r="D55">
-        <v>39530784</v>
+        <v>41750005</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -2979,7 +3361,7 @@
         <v>13</v>
       </c>
       <c r="I55">
-        <v>63.33</v>
+        <v>61.27</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2993,7 +3375,7 @@
         <v>121</v>
       </c>
       <c r="D56">
-        <v>39530785</v>
+        <v>41750006</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -3008,7 +3390,7 @@
         <v>13</v>
       </c>
       <c r="I56">
-        <v>57.08</v>
+        <v>58.89</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3022,7 +3404,7 @@
         <v>123</v>
       </c>
       <c r="D57">
-        <v>39530786</v>
+        <v>41750007</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -3037,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="I57">
-        <v>60.95</v>
+        <v>60.46</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3051,13 +3433,13 @@
         <v>125</v>
       </c>
       <c r="D58">
-        <v>39530787</v>
+        <v>41750008</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
       </c>
       <c r="F58">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -3066,7 +3448,7 @@
         <v>13</v>
       </c>
       <c r="I58">
-        <v>63.33</v>
+        <v>64.209999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3080,13 +3462,13 @@
         <v>127</v>
       </c>
       <c r="D59">
-        <v>39530788</v>
+        <v>41750009</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -3095,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="I59">
-        <v>59.16</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -3109,7 +3491,7 @@
         <v>129</v>
       </c>
       <c r="D60">
-        <v>39530789</v>
+        <v>41750010</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -3124,7 +3506,7 @@
         <v>13</v>
       </c>
       <c r="I60">
-        <v>52.62</v>
+        <v>81.38</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -3138,7 +3520,7 @@
         <v>131</v>
       </c>
       <c r="D61">
-        <v>39530790</v>
+        <v>41750011</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -3153,7 +3535,7 @@
         <v>13</v>
       </c>
       <c r="I61">
-        <v>64.78</v>
+        <v>57.91</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3167,7 +3549,7 @@
         <v>133</v>
       </c>
       <c r="D62">
-        <v>39530791</v>
+        <v>41750012</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -3182,7 +3564,7 @@
         <v>13</v>
       </c>
       <c r="I62">
-        <v>66.58</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3196,7 +3578,7 @@
         <v>135</v>
       </c>
       <c r="D63">
-        <v>39530792</v>
+        <v>41750013</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -3211,7 +3593,7 @@
         <v>13</v>
       </c>
       <c r="I63">
-        <v>57.52</v>
+        <v>76.290000000000006</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3225,7 +3607,7 @@
         <v>137</v>
       </c>
       <c r="D64">
-        <v>39530793</v>
+        <v>41750014</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -3240,7 +3622,7 @@
         <v>13</v>
       </c>
       <c r="I64">
-        <v>57.86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3254,7 +3636,7 @@
         <v>139</v>
       </c>
       <c r="D65">
-        <v>39530794</v>
+        <v>41750015</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -3269,7 +3651,7 @@
         <v>13</v>
       </c>
       <c r="I65">
-        <v>55.66</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3283,13 +3665,13 @@
         <v>141</v>
       </c>
       <c r="D66">
-        <v>39530795</v>
+        <v>41750016</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -3298,7 +3680,7 @@
         <v>13</v>
       </c>
       <c r="I66">
-        <v>60.5</v>
+        <v>61.22</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3312,13 +3694,13 @@
         <v>143</v>
       </c>
       <c r="D67">
-        <v>39530796</v>
+        <v>41750017</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
       </c>
       <c r="F67">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -3327,7 +3709,7 @@
         <v>13</v>
       </c>
       <c r="I67">
-        <v>58.33</v>
+        <v>76.39</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3341,7 +3723,7 @@
         <v>145</v>
       </c>
       <c r="D68">
-        <v>39530797</v>
+        <v>41750018</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -3356,7 +3738,7 @@
         <v>13</v>
       </c>
       <c r="I68">
-        <v>49.19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3370,7 +3752,7 @@
         <v>147</v>
       </c>
       <c r="D69">
-        <v>39530798</v>
+        <v>41750019</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -3385,7 +3767,7 @@
         <v>13</v>
       </c>
       <c r="I69">
-        <v>60.86</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3399,7 +3781,7 @@
         <v>149</v>
       </c>
       <c r="D70">
-        <v>39530800</v>
+        <v>41750020</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -3414,7 +3796,7 @@
         <v>13</v>
       </c>
       <c r="I70">
-        <v>54.05</v>
+        <v>59.88</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3428,7 +3810,7 @@
         <v>151</v>
       </c>
       <c r="D71">
-        <v>39530801</v>
+        <v>41750021</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -3443,7 +3825,7 @@
         <v>13</v>
       </c>
       <c r="I71">
-        <v>59.53</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3457,7 +3839,7 @@
         <v>153</v>
       </c>
       <c r="D72">
-        <v>39530802</v>
+        <v>41750022</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -3472,7 +3854,7 @@
         <v>13</v>
       </c>
       <c r="I72">
-        <v>59.84</v>
+        <v>61.09</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3486,13 +3868,13 @@
         <v>155</v>
       </c>
       <c r="D73">
-        <v>39530803</v>
+        <v>41750023</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
@@ -3501,7 +3883,7 @@
         <v>13</v>
       </c>
       <c r="I73">
-        <v>58.84</v>
+        <v>69.95</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3515,13 +3897,13 @@
         <v>157</v>
       </c>
       <c r="D74">
-        <v>39530804</v>
+        <v>41750024</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -3530,7 +3912,7 @@
         <v>13</v>
       </c>
       <c r="I74">
-        <v>59.35</v>
+        <v>61.78</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3544,13 +3926,13 @@
         <v>159</v>
       </c>
       <c r="D75">
-        <v>39530805</v>
+        <v>41750025</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
       <c r="F75">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -3559,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="I75">
-        <v>54.56</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3573,7 +3955,7 @@
         <v>161</v>
       </c>
       <c r="D76">
-        <v>39530806</v>
+        <v>41750026</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -3588,7 +3970,7 @@
         <v>13</v>
       </c>
       <c r="I76">
-        <v>58.52</v>
+        <v>60.42</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3602,7 +3984,7 @@
         <v>163</v>
       </c>
       <c r="D77">
-        <v>39530807</v>
+        <v>41750027</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -3617,7 +3999,7 @@
         <v>13</v>
       </c>
       <c r="I77">
-        <v>48.69</v>
+        <v>59.73</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3631,7 +4013,7 @@
         <v>165</v>
       </c>
       <c r="D78">
-        <v>39530808</v>
+        <v>41750028</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
@@ -3646,7 +4028,7 @@
         <v>13</v>
       </c>
       <c r="I78">
-        <v>54.27</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3660,7 +4042,7 @@
         <v>167</v>
       </c>
       <c r="D79">
-        <v>39530809</v>
+        <v>41750029</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -3675,7 +4057,7 @@
         <v>13</v>
       </c>
       <c r="I79">
-        <v>63.24</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3689,7 +4071,7 @@
         <v>169</v>
       </c>
       <c r="D80">
-        <v>39530810</v>
+        <v>41750030</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -3704,7 +4086,7 @@
         <v>13</v>
       </c>
       <c r="I80">
-        <v>56.82</v>
+        <v>63.88</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3718,13 +4100,13 @@
         <v>171</v>
       </c>
       <c r="D81">
-        <v>39530811</v>
+        <v>41750031</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -3733,7 +4115,7 @@
         <v>13</v>
       </c>
       <c r="I81">
-        <v>48.15</v>
+        <v>55.07</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3747,13 +4129,13 @@
         <v>173</v>
       </c>
       <c r="D82">
-        <v>39530812</v>
+        <v>41750032</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="F82">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
@@ -3762,7 +4144,7 @@
         <v>13</v>
       </c>
       <c r="I82">
-        <v>59.64</v>
+        <v>59.43</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3776,13 +4158,13 @@
         <v>175</v>
       </c>
       <c r="D83">
-        <v>39530813</v>
+        <v>41750033</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
@@ -3791,7 +4173,7 @@
         <v>13</v>
       </c>
       <c r="I83">
-        <v>54.52</v>
+        <v>56.34</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3805,7 +4187,7 @@
         <v>177</v>
       </c>
       <c r="D84">
-        <v>39530814</v>
+        <v>41750034</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -3820,7 +4202,7 @@
         <v>13</v>
       </c>
       <c r="I84">
-        <v>55.1</v>
+        <v>56.95</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3834,7 +4216,7 @@
         <v>179</v>
       </c>
       <c r="D85">
-        <v>39530815</v>
+        <v>41750035</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -3849,7 +4231,7 @@
         <v>13</v>
       </c>
       <c r="I85">
-        <v>43.58</v>
+        <v>56.53</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3863,7 +4245,7 @@
         <v>181</v>
       </c>
       <c r="D86">
-        <v>39530816</v>
+        <v>41750036</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -3878,7 +4260,7 @@
         <v>13</v>
       </c>
       <c r="I86">
-        <v>54.31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3892,7 +4274,7 @@
         <v>183</v>
       </c>
       <c r="D87">
-        <v>39530817</v>
+        <v>41750037</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -3907,7 +4289,7 @@
         <v>13</v>
       </c>
       <c r="I87">
-        <v>43.59</v>
+        <v>61.23</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3921,7 +4303,7 @@
         <v>185</v>
       </c>
       <c r="D88">
-        <v>39530818</v>
+        <v>41750038</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -3936,7 +4318,7 @@
         <v>13</v>
       </c>
       <c r="I88">
-        <v>70.03</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3950,13 +4332,13 @@
         <v>187</v>
       </c>
       <c r="D89">
-        <v>39530819</v>
+        <v>41750039</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
       <c r="F89">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -3965,7 +4347,7 @@
         <v>13</v>
       </c>
       <c r="I89">
-        <v>56.03</v>
+        <v>52.26</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3979,13 +4361,13 @@
         <v>189</v>
       </c>
       <c r="D90">
-        <v>39530820</v>
+        <v>41750040</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G90" t="s">
         <v>12</v>
@@ -3994,7 +4376,7 @@
         <v>13</v>
       </c>
       <c r="I90">
-        <v>50.41</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4008,13 +4390,13 @@
         <v>191</v>
       </c>
       <c r="D91">
-        <v>39530821</v>
+        <v>41750041</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
       </c>
       <c r="F91">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
@@ -4023,7 +4405,7 @@
         <v>13</v>
       </c>
       <c r="I91">
-        <v>47.53</v>
+        <v>52.67</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -4037,7 +4419,7 @@
         <v>193</v>
       </c>
       <c r="D92">
-        <v>39530822</v>
+        <v>41750042</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -4052,7 +4434,7 @@
         <v>13</v>
       </c>
       <c r="I92">
-        <v>67.349999999999994</v>
+        <v>57.15</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -4066,7 +4448,7 @@
         <v>195</v>
       </c>
       <c r="D93">
-        <v>39530823</v>
+        <v>41750043</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -4081,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="I93">
-        <v>53.5</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4095,7 +4477,7 @@
         <v>197</v>
       </c>
       <c r="D94">
-        <v>39530824</v>
+        <v>41750044</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -4110,7 +4492,7 @@
         <v>13</v>
       </c>
       <c r="I94">
-        <v>57.6</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4124,7 +4506,7 @@
         <v>199</v>
       </c>
       <c r="D95">
-        <v>39530825</v>
+        <v>41750045</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -4139,7 +4521,7 @@
         <v>13</v>
       </c>
       <c r="I95">
-        <v>56.24</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4153,7 +4535,7 @@
         <v>201</v>
       </c>
       <c r="D96">
-        <v>39530826</v>
+        <v>41750046</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -4168,7 +4550,7 @@
         <v>13</v>
       </c>
       <c r="I96">
-        <v>63.13</v>
+        <v>60.59</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4182,13 +4564,13 @@
         <v>203</v>
       </c>
       <c r="D97">
-        <v>39530827</v>
+        <v>41750047</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -4197,7 +4579,7 @@
         <v>13</v>
       </c>
       <c r="I97">
-        <v>59.03</v>
+        <v>66.66</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4211,13 +4593,13 @@
         <v>205</v>
       </c>
       <c r="D98">
-        <v>39530828</v>
+        <v>41750048</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -4226,7 +4608,7 @@
         <v>13</v>
       </c>
       <c r="I98">
-        <v>51.75</v>
+        <v>73.040000000000006</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4240,7 +4622,7 @@
         <v>207</v>
       </c>
       <c r="D99">
-        <v>39530829</v>
+        <v>41750049</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -4255,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="I99">
-        <v>57.03</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4269,7 +4651,7 @@
         <v>209</v>
       </c>
       <c r="D100">
-        <v>39530830</v>
+        <v>41750050</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -4284,7 +4666,7 @@
         <v>13</v>
       </c>
       <c r="I100">
-        <v>54.02</v>
+        <v>55.78</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4298,7 +4680,7 @@
         <v>211</v>
       </c>
       <c r="D101">
-        <v>39530831</v>
+        <v>41750051</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -4313,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="I101">
-        <v>56.5</v>
+        <v>58.04</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4327,7 +4709,7 @@
         <v>213</v>
       </c>
       <c r="D102">
-        <v>39530832</v>
+        <v>41750052</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -4342,7 +4724,7 @@
         <v>13</v>
       </c>
       <c r="I102">
-        <v>58.72</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4356,7 +4738,7 @@
         <v>215</v>
       </c>
       <c r="D103">
-        <v>39530833</v>
+        <v>41750053</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -4371,7 +4753,7 @@
         <v>13</v>
       </c>
       <c r="I103">
-        <v>58.75</v>
+        <v>80.06</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4385,7 +4767,7 @@
         <v>217</v>
       </c>
       <c r="D104">
-        <v>39530834</v>
+        <v>41750054</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -4400,7 +4782,7 @@
         <v>13</v>
       </c>
       <c r="I104">
-        <v>52.36</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4414,7 +4796,7 @@
         <v>219</v>
       </c>
       <c r="D105">
-        <v>39530835</v>
+        <v>41750055</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -4429,7 +4811,7 @@
         <v>13</v>
       </c>
       <c r="I105">
-        <v>52.87</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4443,7 +4825,7 @@
         <v>221</v>
       </c>
       <c r="D106">
-        <v>39530836</v>
+        <v>41750056</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -4458,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="I106">
-        <v>49.92</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4472,7 +4854,7 @@
         <v>223</v>
       </c>
       <c r="D107">
-        <v>39530837</v>
+        <v>41750057</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -4487,7 +4869,7 @@
         <v>13</v>
       </c>
       <c r="I107">
-        <v>48.14</v>
+        <v>56.39</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4501,7 +4883,7 @@
         <v>225</v>
       </c>
       <c r="D108">
-        <v>39530838</v>
+        <v>41750058</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -4516,7 +4898,7 @@
         <v>13</v>
       </c>
       <c r="I108">
-        <v>55.37</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4530,7 +4912,7 @@
         <v>227</v>
       </c>
       <c r="D109">
-        <v>39530839</v>
+        <v>41750059</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -4545,7 +4927,7 @@
         <v>13</v>
       </c>
       <c r="I109">
-        <v>53.46</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4559,7 +4941,7 @@
         <v>229</v>
       </c>
       <c r="D110">
-        <v>39530840</v>
+        <v>41750060</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -4574,7 +4956,7 @@
         <v>13</v>
       </c>
       <c r="I110">
-        <v>54.78</v>
+        <v>58.46</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4588,7 +4970,7 @@
         <v>231</v>
       </c>
       <c r="D111">
-        <v>39530841</v>
+        <v>41750062</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -4603,7 +4985,7 @@
         <v>13</v>
       </c>
       <c r="I111">
-        <v>54.36</v>
+        <v>69.75</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4617,13 +4999,13 @@
         <v>233</v>
       </c>
       <c r="D112">
-        <v>39530842</v>
+        <v>41750063</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
       </c>
       <c r="F112">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
@@ -4632,7 +5014,7 @@
         <v>13</v>
       </c>
       <c r="I112">
-        <v>55.32</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4646,13 +5028,13 @@
         <v>235</v>
       </c>
       <c r="D113">
-        <v>39530843</v>
+        <v>41750064</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
       </c>
       <c r="F113">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -4661,7 +5043,7 @@
         <v>13</v>
       </c>
       <c r="I113">
-        <v>45.24</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4675,13 +5057,13 @@
         <v>237</v>
       </c>
       <c r="D114">
-        <v>39530844</v>
+        <v>41750065</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
       </c>
       <c r="F114">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
@@ -4690,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="I114">
-        <v>37.14</v>
+        <v>75.790000000000006</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4704,7 +5086,7 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>39530845</v>
+        <v>41750066</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -4719,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="I115">
-        <v>48.18</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -4733,7 +5115,7 @@
         <v>241</v>
       </c>
       <c r="D116">
-        <v>39530846</v>
+        <v>41750067</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -4748,7 +5130,7 @@
         <v>13</v>
       </c>
       <c r="I116">
-        <v>50.12</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4762,7 +5144,7 @@
         <v>243</v>
       </c>
       <c r="D117">
-        <v>39530847</v>
+        <v>41750068</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -4777,7 +5159,7 @@
         <v>13</v>
       </c>
       <c r="I117">
-        <v>50.02</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4791,7 +5173,7 @@
         <v>245</v>
       </c>
       <c r="D118">
-        <v>39530848</v>
+        <v>41750069</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -4806,7 +5188,7 @@
         <v>13</v>
       </c>
       <c r="I118">
-        <v>49.5</v>
+        <v>47.42</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -4820,13 +5202,13 @@
         <v>247</v>
       </c>
       <c r="D119">
-        <v>39530849</v>
+        <v>41750070</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="F119">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -4835,7 +5217,7 @@
         <v>13</v>
       </c>
       <c r="I119">
-        <v>53.81</v>
+        <v>69.44</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4849,13 +5231,13 @@
         <v>249</v>
       </c>
       <c r="D120">
-        <v>39530850</v>
+        <v>41750071</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
       </c>
       <c r="F120">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G120" t="s">
         <v>12</v>
@@ -4864,7 +5246,7 @@
         <v>13</v>
       </c>
       <c r="I120">
-        <v>54.39</v>
+        <v>72.48</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4878,13 +5260,13 @@
         <v>251</v>
       </c>
       <c r="D121">
-        <v>39530851</v>
+        <v>41750072</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
       <c r="F121">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -4893,7 +5275,7 @@
         <v>13</v>
       </c>
       <c r="I121">
-        <v>52.97</v>
+        <v>69.06</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4907,13 +5289,13 @@
         <v>253</v>
       </c>
       <c r="D122">
-        <v>39530852</v>
+        <v>41750073</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
       </c>
       <c r="F122">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
@@ -4922,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="I122">
-        <v>46.33</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4936,13 +5318,13 @@
         <v>255</v>
       </c>
       <c r="D123">
-        <v>39530853</v>
+        <v>41750074</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
       </c>
       <c r="F123">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
@@ -4951,7 +5333,7 @@
         <v>13</v>
       </c>
       <c r="I123">
-        <v>48.75</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4965,7 +5347,7 @@
         <v>257</v>
       </c>
       <c r="D124">
-        <v>39530854</v>
+        <v>41750075</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -4980,7 +5362,7 @@
         <v>13</v>
       </c>
       <c r="I124">
-        <v>48.81</v>
+        <v>50.96</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4994,7 +5376,7 @@
         <v>259</v>
       </c>
       <c r="D125">
-        <v>39530855</v>
+        <v>41750076</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -5009,7 +5391,7 @@
         <v>13</v>
       </c>
       <c r="I125">
-        <v>48.57</v>
+        <v>49.23</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -5023,13 +5405,13 @@
         <v>261</v>
       </c>
       <c r="D126">
-        <v>39530856</v>
+        <v>41750077</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
       </c>
       <c r="F126">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G126" t="s">
         <v>12</v>
@@ -5038,7 +5420,7 @@
         <v>13</v>
       </c>
       <c r="I126">
-        <v>48.83</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -5052,13 +5434,13 @@
         <v>263</v>
       </c>
       <c r="D127">
-        <v>39530857</v>
+        <v>41750078</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
       </c>
       <c r="F127">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G127" t="s">
         <v>12</v>
@@ -5067,7 +5449,7 @@
         <v>13</v>
       </c>
       <c r="I127">
-        <v>51.43</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -5081,13 +5463,13 @@
         <v>265</v>
       </c>
       <c r="D128">
-        <v>39530858</v>
+        <v>41750079</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
       <c r="F128">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G128" t="s">
         <v>12</v>
@@ -5096,7 +5478,7 @@
         <v>13</v>
       </c>
       <c r="I128">
-        <v>44.55</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5110,13 +5492,13 @@
         <v>267</v>
       </c>
       <c r="D129">
-        <v>39530859</v>
+        <v>41750080</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
       </c>
       <c r="F129">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G129" t="s">
         <v>12</v>
@@ -5125,7 +5507,7 @@
         <v>13</v>
       </c>
       <c r="I129">
-        <v>38.54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5139,13 +5521,13 @@
         <v>269</v>
       </c>
       <c r="D130">
-        <v>39530860</v>
+        <v>41750081</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
       </c>
       <c r="F130">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G130" t="s">
         <v>12</v>
@@ -5154,7 +5536,7 @@
         <v>13</v>
       </c>
       <c r="I130">
-        <v>53.8</v>
+        <v>64.94</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -5168,13 +5550,13 @@
         <v>271</v>
       </c>
       <c r="D131">
-        <v>39530861</v>
+        <v>41750082</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
       </c>
       <c r="F131">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G131" t="s">
         <v>12</v>
@@ -5183,7 +5565,7 @@
         <v>13</v>
       </c>
       <c r="I131">
-        <v>54.13</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5197,13 +5579,13 @@
         <v>273</v>
       </c>
       <c r="D132">
-        <v>39530862</v>
+        <v>41750083</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
       </c>
       <c r="F132">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G132" t="s">
         <v>12</v>
@@ -5212,7 +5594,7 @@
         <v>13</v>
       </c>
       <c r="I132">
-        <v>52.69</v>
+        <v>37.380000000000003</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5226,13 +5608,13 @@
         <v>275</v>
       </c>
       <c r="D133">
-        <v>39530863</v>
+        <v>41750084</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
       </c>
       <c r="F133">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G133" t="s">
         <v>12</v>
@@ -5241,7 +5623,7 @@
         <v>13</v>
       </c>
       <c r="I133">
-        <v>48.14</v>
+        <v>49.61</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5255,13 +5637,13 @@
         <v>277</v>
       </c>
       <c r="D134">
-        <v>39530864</v>
+        <v>41750085</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
       </c>
       <c r="F134">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G134" t="s">
         <v>12</v>
@@ -5270,7 +5652,7 @@
         <v>13</v>
       </c>
       <c r="I134">
-        <v>45.39</v>
+        <v>47.12</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5284,13 +5666,13 @@
         <v>279</v>
       </c>
       <c r="D135">
-        <v>39530865</v>
+        <v>41750086</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
       </c>
       <c r="F135">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G135" t="s">
         <v>12</v>
@@ -5299,7 +5681,7 @@
         <v>13</v>
       </c>
       <c r="I135">
-        <v>39.26</v>
+        <v>46.58</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5313,13 +5695,13 @@
         <v>281</v>
       </c>
       <c r="D136">
-        <v>39530866</v>
+        <v>41750087</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
       </c>
       <c r="F136">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G136" t="s">
         <v>12</v>
@@ -5328,7 +5710,7 @@
         <v>13</v>
       </c>
       <c r="I136">
-        <v>44.25</v>
+        <v>40.770000000000003</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -5342,13 +5724,13 @@
         <v>283</v>
       </c>
       <c r="D137">
-        <v>39530867</v>
+        <v>41750088</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
       </c>
       <c r="F137">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
@@ -5357,7 +5739,7 @@
         <v>13</v>
       </c>
       <c r="I137">
-        <v>48.43</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5371,13 +5753,13 @@
         <v>285</v>
       </c>
       <c r="D138">
-        <v>39530868</v>
+        <v>41750089</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
       </c>
       <c r="F138">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G138" t="s">
         <v>12</v>
@@ -5386,7 +5768,7 @@
         <v>13</v>
       </c>
       <c r="I138">
-        <v>52.36</v>
+        <v>64.61</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -5400,13 +5782,13 @@
         <v>287</v>
       </c>
       <c r="D139">
-        <v>39530869</v>
+        <v>41750090</v>
       </c>
       <c r="E139" t="s">
         <v>9</v>
       </c>
       <c r="F139">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G139" t="s">
         <v>12</v>
@@ -5415,7 +5797,7 @@
         <v>13</v>
       </c>
       <c r="I139">
-        <v>48.67</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5429,13 +5811,13 @@
         <v>289</v>
       </c>
       <c r="D140">
-        <v>39530870</v>
+        <v>41750091</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
       </c>
       <c r="F140">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
@@ -5444,503 +5826,26 @@
         <v>13</v>
       </c>
       <c r="I140">
-        <v>35.299999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>290</v>
       </c>
-      <c r="C141" t="s">
+      <c r="F141">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
         <v>291</v>
       </c>
-      <c r="D141">
-        <v>39530871</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141">
-        <v>6100</v>
-      </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" t="s">
-        <v>13</v>
-      </c>
-      <c r="I141">
-        <v>46.24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>292</v>
-      </c>
-      <c r="C142" t="s">
-        <v>293</v>
-      </c>
-      <c r="D142">
-        <v>39530872</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
       <c r="F142">
-        <v>6100</v>
-      </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142">
-        <v>41.19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" t="s">
-        <v>294</v>
-      </c>
-      <c r="C143" t="s">
-        <v>295</v>
-      </c>
-      <c r="D143">
-        <v>39537366</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143">
-        <v>6100</v>
-      </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" t="s">
-        <v>296</v>
-      </c>
-      <c r="C144" t="s">
-        <v>297</v>
-      </c>
-      <c r="D144">
-        <v>39537367</v>
-      </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144">
-        <v>6100</v>
-      </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" t="s">
-        <v>13</v>
-      </c>
-      <c r="I144">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" t="s">
-        <v>298</v>
-      </c>
-      <c r="C145" t="s">
-        <v>299</v>
-      </c>
-      <c r="D145">
-        <v>39530873</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145">
-        <v>6000</v>
-      </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" t="s">
-        <v>13</v>
-      </c>
-      <c r="I145">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146" t="s">
-        <v>300</v>
-      </c>
-      <c r="C146" t="s">
-        <v>301</v>
-      </c>
-      <c r="D146">
-        <v>39530874</v>
-      </c>
-      <c r="E146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146">
-        <v>6000</v>
-      </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146">
-        <v>44.94</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" t="s">
-        <v>302</v>
-      </c>
-      <c r="C147" t="s">
-        <v>303</v>
-      </c>
-      <c r="D147">
-        <v>39530875</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147">
-        <v>6000</v>
-      </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147">
-        <v>40.17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" t="s">
-        <v>304</v>
-      </c>
-      <c r="C148" t="s">
-        <v>305</v>
-      </c>
-      <c r="D148">
-        <v>39530876</v>
-      </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148">
-        <v>6000</v>
-      </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148">
-        <v>38.619999999999997</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" t="s">
-        <v>306</v>
-      </c>
-      <c r="C149" t="s">
-        <v>307</v>
-      </c>
-      <c r="D149">
-        <v>39530877</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149">
-        <v>6000</v>
-      </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149">
-        <v>36.85</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" t="s">
-        <v>308</v>
-      </c>
-      <c r="C150" t="s">
-        <v>309</v>
-      </c>
-      <c r="D150">
-        <v>39530878</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150">
-        <v>6000</v>
-      </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150">
-        <v>36.450000000000003</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>9</v>
-      </c>
-      <c r="B151" t="s">
-        <v>310</v>
-      </c>
-      <c r="C151" t="s">
-        <v>311</v>
-      </c>
-      <c r="D151">
-        <v>39530879</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151">
-        <v>6000</v>
-      </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" t="s">
-        <v>13</v>
-      </c>
-      <c r="I151">
-        <v>25.25</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>9</v>
-      </c>
-      <c r="B152" t="s">
-        <v>312</v>
-      </c>
-      <c r="C152" t="s">
-        <v>313</v>
-      </c>
-      <c r="D152">
-        <v>39530880</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152">
-        <v>6000</v>
-      </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152">
-        <v>38.28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" t="s">
-        <v>314</v>
-      </c>
-      <c r="C153" t="s">
-        <v>315</v>
-      </c>
-      <c r="D153">
-        <v>39530881</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153">
-        <v>6000</v>
-      </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153">
-        <v>32.74</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" t="s">
-        <v>316</v>
-      </c>
-      <c r="C154" t="s">
-        <v>317</v>
-      </c>
-      <c r="D154">
-        <v>39530882</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154">
-        <v>6000</v>
-      </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" t="s">
-        <v>13</v>
-      </c>
-      <c r="I154">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>9</v>
-      </c>
-      <c r="B155" t="s">
-        <v>318</v>
-      </c>
-      <c r="C155" t="s">
-        <v>319</v>
-      </c>
-      <c r="D155">
-        <v>39537364</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155">
-        <v>6000</v>
-      </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>9</v>
-      </c>
-      <c r="B156" t="s">
-        <v>320</v>
-      </c>
-      <c r="C156" t="s">
-        <v>321</v>
-      </c>
-      <c r="D156">
-        <v>39537365</v>
-      </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156">
-        <v>6000</v>
-      </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
-      <c r="H156" t="s">
-        <v>13</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" t="s">
-        <v>322</v>
-      </c>
-      <c r="C157" t="s">
-        <v>323</v>
-      </c>
-      <c r="D157">
-        <v>39537368</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157">
-        <v>6000</v>
-      </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" t="s">
-        <v>13</v>
-      </c>
-      <c r="I157">
-        <v>33.03</v>
+        <v>6555</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>